--- a/para_grading/Dataset/train_updated.xlsx
+++ b/para_grading/Dataset/train_updated.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="187">
   <si>
     <r>
       <rPr>
@@ -1633,29 +1633,424 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Unless you have opted out where available, we </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>may rent, sell</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, or share any of your information, personal or otherwise, with third parties, including </t>
+    <t>Sell/Rent</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Information about our customers is an important part of our business, and we are not in the business of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>selling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> personally identifiable information to unaffiliated third parties for their commercial use.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RealNetworks does </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sell, rent, or share your personal information to a third party </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unless</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you consent to provide such information to a third party partner or content service</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>We do</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n't</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> share, sell, or rent your personal information to third parties without your consent.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">We do not, under any circumstances, share, sell or rent your information to anyone. </t>
+  </si>
+  <si>
+    <t>Not share</t>
+  </si>
+  <si>
+    <t>Jerlando’s Pizza</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> share, rent, sell, or otherwise use any personal information you have given us to any third party </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>without</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> your permission, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>except</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when required by law, subpoena or other legal process or in order to protect the safety of the public. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Crunch </t>
+  </si>
+  <si>
+    <t>We do not rent, sell, or share any of this information with third party companies.</t>
+  </si>
+  <si>
+    <t>VingDirect</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> share, sell or rent any personal information to any third parties </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>without</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> your explicit consent.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We will </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>never</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rent, sell, or share your information with anyone </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>without</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> your express consent.</t>
+    </r>
+  </si>
+  <si>
+    <t>Guidetechnologies</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We will </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>never</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rent, sell, or share your information with anyone </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>without</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> your express consent</t>
+    </r>
+  </si>
+  <si>
+    <t>MSI Lab</t>
+  </si>
+  <si>
+    <t>Legal Heat</t>
+  </si>
+  <si>
+    <t>We do not rent, sell or share any of your personal information with companies that are not affiliated with SEI.</t>
+  </si>
+  <si>
+    <t>Sterndrive Engineering, Inc. (SEI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We do not rent, sell, or share any information about the user with any third-parties. </t>
+  </si>
+  <si>
+    <t>Viber Media</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unless we have otherwise indicated, we </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>may</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rent, sell,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>share</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> any of your information, personal or otherwise, with third parties, including </t>
     </r>
     <r>
       <rPr>
@@ -1676,44 +2071,156 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> for the following purposes:</t>
-    </r>
-  </si>
-  <si>
-    <t>Sell/Rent</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Information about our customers is an important part of our business, and we are not in the business of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>selling</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> personally identifiable information to unaffiliated third parties for their commercial use.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RealNetworks does </t>
+      <t xml:space="preserve"> for the following purposes</t>
+    </r>
+  </si>
+  <si>
+    <t>Share unless opt-out</t>
+  </si>
+  <si>
+    <t>creditcards.org</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reserve the right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to share, rent, sell, or otherwise disclose personal information we collect about you to third parties for marketing products and services which we determine, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in our sole judgment,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that you might find of interest .</t>
+    </r>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>GetMyHomesValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TelMasters </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unless you have opted out, we may </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rent, sell, or share</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> any of your information, personal or otherwise, with third parties, including without limitation for the following purposes</t>
+    </r>
+  </si>
+  <si>
+    <t>At times Apple may make certain personal information available to strategic partners that work with Apple to provide products and services, or that help Apple market to customers.</t>
+  </si>
+  <si>
+    <t>Outlier</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We also </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>may</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> share personal information we obtain from you through offline sources</t>
+    </r>
+  </si>
+  <si>
+    <t>rd.com</t>
+  </si>
+  <si>
+    <t>ToysRUs may share your personal information with service providers</t>
+  </si>
+  <si>
+    <t>toysrus.com</t>
+  </si>
+  <si>
+    <t>ICUE will disclose your personal data to the following third parties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICUE </t>
+  </si>
+  <si>
+    <t>We never share or sell your personal information</t>
+  </si>
+  <si>
+    <t>fellowes.com</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We do </t>
     </r>
     <r>
       <rPr>
@@ -1734,566 +2241,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> sell, rent, or share your personal information to a third party </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>unless</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> you consent to provide such information to a third party partner or content service</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>We do</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n't</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> share, sell, or rent your personal information to third parties without your consent.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">We do not, under any circumstances, share, sell or rent your information to anyone. </t>
-  </si>
-  <si>
-    <t>Not share</t>
-  </si>
-  <si>
-    <t>Jerlando’s Pizza</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We do </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>not</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> share, rent, sell, or otherwise use any personal information you have given us to any third party </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>without</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> your permission, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>except</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> when required by law, subpoena or other legal process or in order to protect the safety of the public. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Crunch </t>
-  </si>
-  <si>
-    <t>We do not rent, sell, or share any of this information with third party companies.</t>
-  </si>
-  <si>
-    <t>VingDirect</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We do </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>not</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> share, sell or rent any personal information to any third parties </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>without</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> your explicit consent.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We will </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>never</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> rent, sell, or share your information with anyone </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>without</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> your express consent.</t>
-    </r>
-  </si>
-  <si>
-    <t>Guidetechnologies</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We will </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>never</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> rent, sell, or share your information with anyone </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>without</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> your express consent</t>
-    </r>
-  </si>
-  <si>
-    <t>MSI Lab</t>
-  </si>
-  <si>
-    <t>Legal Heat</t>
-  </si>
-  <si>
-    <t>We do not rent, sell or share any of your personal information with companies that are not affiliated with SEI.</t>
-  </si>
-  <si>
-    <t>Sterndrive Engineering, Inc. (SEI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We do not rent, sell, or share any information about the user with any third-parties. </t>
-  </si>
-  <si>
-    <t>Viber Media</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Unless we have otherwise indicated, we </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>may</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rent, sell,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>share</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> any of your information, personal or otherwise, with third parties, including </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>without limitation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for the following purposes</t>
-    </r>
-  </si>
-  <si>
-    <t>Share unless opt-out</t>
-  </si>
-  <si>
-    <t>creditcards.org</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>reserve the right</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to share, rent, sell, or otherwise disclose personal information we collect about you to third parties for marketing products and services which we determine, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>in our sole judgment,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> that you might find of interest .</t>
-    </r>
-  </si>
-  <si>
-    <t>Share</t>
-  </si>
-  <si>
-    <t>GetMyHomesValue</t>
-  </si>
-  <si>
-    <t>We reserve the right to share, rent, sell, or otherwise disclose data we collect to third parties</t>
-  </si>
-  <si>
-    <t>clickspeed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TelMasters </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Unless you have opted out, we may </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rent, sell, or share</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> any of your information, personal or otherwise, with third parties, including without limitation for the following purposes</t>
-    </r>
-  </si>
-  <si>
-    <t>At times Apple may make certain personal information available to strategic partners that work with Apple to provide products and services, or that help Apple market to customers.</t>
-  </si>
-  <si>
-    <t>Outlier</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We also </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>may</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> share personal information we obtain from you through offline sources</t>
-    </r>
-  </si>
-  <si>
-    <t>rd.com</t>
-  </si>
-  <si>
-    <t>ToysRUs may share your personal information with service providers</t>
-  </si>
-  <si>
-    <t>toysrus.com</t>
-  </si>
-  <si>
-    <t>ICUE will disclose your personal data to the following third parties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICUE </t>
-  </si>
-  <si>
-    <t>We never share or sell your personal information</t>
-  </si>
-  <si>
-    <t>fellowes.com</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We do </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>not</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> rent, sell, or otherwise provide your personally identifiable information to third parties for marketing purposes.</t>
     </r>
   </si>
@@ -2313,12 +2260,6 @@
     <t>entersect.net</t>
   </si>
   <si>
-    <t>PADeals reserves the right to share, rent, sell, or otherwise disclose data we collect to third parties</t>
-  </si>
-  <si>
-    <t>PA Deals</t>
-  </si>
-  <si>
     <t>We may sell, rent, license, trade or otherwise disclose your personal information, including but not limited to your mailing address, phone number and other registration information</t>
   </si>
   <si>
@@ -2377,18 +2318,110 @@
   </si>
   <si>
     <t>stopped.at</t>
+  </si>
+  <si>
+    <t>Restricted data is not automatically shared with, sold to, or displayed for other Members or Partners</t>
+  </si>
+  <si>
+    <t>patientslikeme.com</t>
+  </si>
+  <si>
+    <t>At times, we may share your personal information with others for various purposes</t>
+  </si>
+  <si>
+    <t>jauars.com</t>
+  </si>
+  <si>
+    <t>Bonnier will only share your sensitive personal information with outside companies or individuals in any of the following limited circumstances</t>
+  </si>
+  <si>
+    <t>BonnierCorp</t>
+  </si>
+  <si>
+    <t>We will not sell, license, transmit or disclose your personal information outside of Blackbaud or its affiliates without notice to you unless as noted in this Statement or on our websites</t>
+  </si>
+  <si>
+    <t>BlackBaud</t>
+  </si>
+  <si>
+    <t>Except as set forth herein, or if we inform you otherwise at the time of data collection, we will not share your PII or Related Data outside of Dow Jones.</t>
+  </si>
+  <si>
+    <t>Dow Jones</t>
+  </si>
+  <si>
+    <t>We may share personal information collected on the Website with our partners and third parties but only with your consent</t>
+  </si>
+  <si>
+    <t>sdl.com</t>
+  </si>
+  <si>
+    <t>We may share your personal information with third parties including our Internet web site hosting company, our promotion company, and our advertising agency</t>
+  </si>
+  <si>
+    <t>camberleyhomes.com</t>
+  </si>
+  <si>
+    <t>We reserve the right to share, rent, sell, or otherwise disclose data we collect to authorized third parties</t>
+  </si>
+  <si>
+    <t>shredoptics.com</t>
+  </si>
+  <si>
+    <t>It is possible that we may rent, sell or otherwise transfer to third parties personally identifiable information about you</t>
+  </si>
+  <si>
+    <t>asmiweb.com</t>
+  </si>
+  <si>
+    <t>We may rent, sell, or share your personal data with partners or third parties we believe may be of interest to you</t>
+  </si>
+  <si>
+    <t>todayspodiatrist.com</t>
+  </si>
+  <si>
+    <t>new/5</t>
+  </si>
+  <si>
+    <t>new/3</t>
+  </si>
+  <si>
+    <t>radioloyalty.com</t>
+  </si>
+  <si>
+    <t>We may rent, sell, and share your personal information and non-personal information with our network partners and third-party affiliates for the purposes of direct mail, email marketing, mobile marketing, and telemarketing</t>
+  </si>
+  <si>
+    <t>share for marketing</t>
+  </si>
+  <si>
+    <t>Interesting false</t>
+  </si>
+  <si>
+    <t>Under no circumstance will we rent, sell, or share any information provided by you to any third party without your permission</t>
+  </si>
+  <si>
+    <t>We will rent, sell and share your data with 3rd party partners</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2844,53 +2877,53 @@
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2899,9 +2932,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -3238,11 +3273,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3260,10 +3295,10 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
         <v>24</v>
@@ -3287,27 +3322,27 @@
         <v>33</v>
       </c>
       <c r="K1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
         <v>99</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>100</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -3315,22 +3350,22 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -3338,22 +3373,22 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -3361,22 +3396,22 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -3384,22 +3419,22 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K6" s="8">
         <v>5</v>
@@ -3407,22 +3442,22 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K7" s="8">
         <v>6</v>
@@ -3430,22 +3465,22 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K8" s="8">
         <v>7</v>
@@ -3453,220 +3488,217 @@
     </row>
     <row r="9" spans="1:11" s="8" customFormat="1">
       <c r="A9" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>94</v>
+      <c r="D9" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K9" s="8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="8" customFormat="1">
+      <c r="A10" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="K10" s="8">
         <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="8">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K11" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="K12" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+      <c r="A13" t="s">
+        <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I13" t="s">
         <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I14" t="s">
         <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="K14" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="B16" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" t="s">
         <v>87</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K16" s="8">
         <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="8">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
+        <v>150</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D17" t="s">
         <v>70</v>
       </c>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
       <c r="I17" t="s">
         <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="K17" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
@@ -3678,18 +3710,18 @@
         <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="K18" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -3701,96 +3733,93 @@
         <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="K19" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>94</v>
+        <v>150</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
       </c>
       <c r="D20" t="s">
         <v>70</v>
       </c>
-      <c r="F20" t="s">
-        <v>67</v>
-      </c>
       <c r="I20" t="s">
         <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="K20" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
+        <v>150</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D21" t="s">
         <v>70</v>
       </c>
+      <c r="F21" t="s">
+        <v>67</v>
+      </c>
       <c r="I21" t="s">
         <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="K21" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>94</v>
+        <v>133</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
       </c>
       <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22" s="8">
         <v>20</v>
-      </c>
-      <c r="F22" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" s="8">
-        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
         <v>20</v>
@@ -3802,21 +3831,21 @@
         <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K23" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
+        <v>151</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D24" t="s">
         <v>20</v>
@@ -3828,18 +3857,18 @@
         <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K24" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s">
         <v>19</v>
@@ -3854,18 +3883,18 @@
         <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="K25" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C26" t="s">
         <v>19</v>
@@ -3880,44 +3909,41 @@
         <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="K26" s="8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="12" customFormat="1">
+      <c r="A27" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-      <c r="I27" t="s">
-        <v>22</v>
-      </c>
-      <c r="J27" t="s">
-        <v>110</v>
-      </c>
-      <c r="K27" s="8">
-        <v>26</v>
+      <c r="F27" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C28" t="s">
         <v>19</v>
@@ -3932,18 +3958,18 @@
         <v>22</v>
       </c>
       <c r="J28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K28" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
         <v>19</v>
@@ -3958,18 +3984,18 @@
         <v>22</v>
       </c>
       <c r="J29" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="K29" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>157</v>
+        <v>105</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
@@ -3977,34 +4003,28 @@
       <c r="D30" t="s">
         <v>20</v>
       </c>
-      <c r="E30" t="s">
-        <v>67</v>
-      </c>
       <c r="F30" t="s">
         <v>67</v>
       </c>
-      <c r="G30" t="s">
-        <v>67</v>
-      </c>
       <c r="I30" t="s">
         <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="K30" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>94</v>
+        <v>145</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
       </c>
       <c r="D31" t="s">
         <v>20</v>
@@ -4012,25 +4032,22 @@
       <c r="F31" t="s">
         <v>67</v>
       </c>
-      <c r="G31" t="s">
-        <v>67</v>
-      </c>
       <c r="I31" t="s">
         <v>22</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="K31" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C32" t="s">
         <v>19</v>
@@ -4051,28 +4068,25 @@
         <v>22</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="K32" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C33" t="s">
-        <v>19</v>
+        <v>152</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D33" t="s">
         <v>20</v>
       </c>
-      <c r="E33" t="s">
-        <v>67</v>
-      </c>
       <c r="F33" t="s">
         <v>67</v>
       </c>
@@ -4083,18 +4097,18 @@
         <v>22</v>
       </c>
       <c r="J33" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="K33" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C34" t="s">
         <v>19</v>
@@ -4102,6 +4116,9 @@
       <c r="D34" t="s">
         <v>20</v>
       </c>
+      <c r="E34" t="s">
+        <v>67</v>
+      </c>
       <c r="F34" t="s">
         <v>67</v>
       </c>
@@ -4112,25 +4129,28 @@
         <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K34" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>94</v>
+        <v>152</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
       </c>
       <c r="D35" t="s">
         <v>20</v>
       </c>
+      <c r="E35" t="s">
+        <v>67</v>
+      </c>
       <c r="F35" t="s">
         <v>67</v>
       </c>
@@ -4141,18 +4161,18 @@
         <v>22</v>
       </c>
       <c r="J35" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="K35" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C36" t="s">
         <v>19</v>
@@ -4170,79 +4190,73 @@
         <v>22</v>
       </c>
       <c r="J36" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="K36" s="8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="12" customFormat="1">
+      <c r="A37" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F37" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" t="s">
-        <v>67</v>
-      </c>
-      <c r="I37" t="s">
-        <v>22</v>
-      </c>
-      <c r="J37" t="s">
-        <v>63</v>
-      </c>
-      <c r="K37" s="8">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="F37" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="12" customFormat="1">
+      <c r="A38" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F38" t="s">
-        <v>67</v>
-      </c>
-      <c r="G38" t="s">
-        <v>67</v>
-      </c>
-      <c r="I38" t="s">
-        <v>22</v>
-      </c>
-      <c r="J38" t="s">
-        <v>73</v>
-      </c>
-      <c r="K38" s="8">
-        <v>37</v>
+      <c r="F38" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C39" t="s">
-        <v>19</v>
+        <v>152</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D39" t="s">
         <v>20</v>
@@ -4257,83 +4271,86 @@
         <v>22</v>
       </c>
       <c r="J39" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="K39" s="8">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
       </c>
       <c r="D40" t="s">
         <v>20</v>
       </c>
+      <c r="F40" t="s">
+        <v>67</v>
+      </c>
       <c r="G40" t="s">
         <v>67</v>
       </c>
-      <c r="H40" t="s">
-        <v>67</v>
-      </c>
       <c r="I40" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J40" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="K40" s="8">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>158</v>
+        <v>61</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D41" t="s">
         <v>20</v>
       </c>
+      <c r="F41" t="s">
+        <v>67</v>
+      </c>
       <c r="G41" t="s">
         <v>67</v>
       </c>
-      <c r="H41" t="s">
-        <v>67</v>
-      </c>
       <c r="I41" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J41" t="s">
+        <v>63</v>
+      </c>
+      <c r="K41" s="8">
         <v>36</v>
-      </c>
-      <c r="K41" s="8">
-        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>158</v>
+        <v>49</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D42" t="s">
         <v>20</v>
       </c>
+      <c r="F42" t="s">
+        <v>67</v>
+      </c>
       <c r="G42" t="s">
         <v>67</v>
       </c>
@@ -4341,18 +4358,18 @@
         <v>22</v>
       </c>
       <c r="J42" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="K42" s="8">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>158</v>
+        <v>90</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="C43" t="s">
         <v>19</v>
@@ -4360,6 +4377,9 @@
       <c r="D43" t="s">
         <v>20</v>
       </c>
+      <c r="F43" t="s">
+        <v>67</v>
+      </c>
       <c r="G43" t="s">
         <v>67</v>
       </c>
@@ -4367,21 +4387,21 @@
         <v>22</v>
       </c>
       <c r="J43" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="K43" s="8">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D44" t="s">
         <v>20</v>
@@ -4389,25 +4409,28 @@
       <c r="G44" t="s">
         <v>67</v>
       </c>
+      <c r="H44" t="s">
+        <v>67</v>
+      </c>
       <c r="I44" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J44" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" s="8">
         <v>39</v>
-      </c>
-      <c r="K44" s="8">
-        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D45" t="s">
         <v>20</v>
@@ -4415,25 +4438,28 @@
       <c r="G45" t="s">
         <v>67</v>
       </c>
+      <c r="H45" t="s">
+        <v>67</v>
+      </c>
       <c r="I45" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K45" s="8">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D46" t="s">
         <v>20</v>
@@ -4445,21 +4471,21 @@
         <v>22</v>
       </c>
       <c r="J46" t="s">
+        <v>34</v>
+      </c>
+      <c r="K46" s="8">
         <v>41</v>
       </c>
-      <c r="K46" s="8">
-        <v>45</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="3" t="s">
-        <v>146</v>
+      <c r="A47" t="s">
+        <v>8</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>94</v>
+        <v>153</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
       </c>
       <c r="D47" t="s">
         <v>20</v>
@@ -4468,24 +4494,24 @@
         <v>67</v>
       </c>
       <c r="I47" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J47" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="K47" s="8">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D48" t="s">
         <v>20</v>
@@ -4497,21 +4523,21 @@
         <v>25</v>
       </c>
       <c r="J48" t="s">
+        <v>39</v>
+      </c>
+      <c r="K48" s="8">
         <v>43</v>
-      </c>
-      <c r="K48" s="8">
-        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D49" t="s">
         <v>20</v>
@@ -4520,24 +4546,24 @@
         <v>67</v>
       </c>
       <c r="I49" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J49" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="K49" s="8">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D50" t="s">
         <v>20</v>
@@ -4549,21 +4575,21 @@
         <v>22</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K50" s="8">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" t="s">
-        <v>6</v>
+      <c r="A51" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C51" t="s">
-        <v>19</v>
+        <v>153</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D51" t="s">
         <v>20</v>
@@ -4572,76 +4598,75 @@
         <v>67</v>
       </c>
       <c r="I51" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J51" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="K51" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="8" customFormat="1">
+      <c r="A52" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G52" t="s">
-        <v>67</v>
-      </c>
-      <c r="I52" t="s">
-        <v>25</v>
-      </c>
-      <c r="J52" t="s">
-        <v>63</v>
-      </c>
-      <c r="K52" s="8">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="8" customFormat="1">
+      <c r="A53" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G53" t="s">
-        <v>67</v>
-      </c>
-      <c r="I53" t="s">
-        <v>25</v>
-      </c>
-      <c r="J53" t="s">
-        <v>75</v>
-      </c>
-      <c r="K53" s="8">
-        <v>52</v>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D54" t="s">
         <v>20</v>
@@ -4650,24 +4675,24 @@
         <v>67</v>
       </c>
       <c r="I54" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J54" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="K54" s="8">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D55" t="s">
         <v>20</v>
@@ -4679,21 +4704,21 @@
         <v>22</v>
       </c>
       <c r="J55" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="K55" s="8">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D56" t="s">
         <v>20</v>
@@ -4705,18 +4730,18 @@
         <v>22</v>
       </c>
       <c r="J56" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="K56" s="8">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C57" t="s">
         <v>19</v>
@@ -4724,9 +4749,6 @@
       <c r="D57" t="s">
         <v>20</v>
       </c>
-      <c r="E57" t="s">
-        <v>67</v>
-      </c>
       <c r="G57" t="s">
         <v>67</v>
       </c>
@@ -4734,346 +4756,603 @@
         <v>22</v>
       </c>
       <c r="J57" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="K57" s="8">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>132</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>159</v>
+        <v>71</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D58" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="G58" t="s">
+        <v>67</v>
       </c>
       <c r="I58" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J58" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="K58" s="8">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>159</v>
+        <v>76</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D59" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="G59" t="s">
+        <v>67</v>
       </c>
       <c r="I59" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J59" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="K59" s="8">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>159</v>
+        <v>80</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D60" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="G60" t="s">
+        <v>67</v>
       </c>
       <c r="I60" t="s">
         <v>22</v>
       </c>
       <c r="J60" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="K60" s="8">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>128</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>159</v>
+        <v>88</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="G61" t="s">
+        <v>67</v>
       </c>
       <c r="I61" t="s">
         <v>22</v>
       </c>
       <c r="J61" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="K61" s="8">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>130</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>159</v>
+        <v>143</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D62" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="G62" t="s">
+        <v>67</v>
       </c>
       <c r="I62" t="s">
         <v>22</v>
       </c>
       <c r="J62" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K62" s="8">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>92</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>160</v>
+        <v>91</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>116</v>
+        <v>20</v>
+      </c>
+      <c r="E63" t="s">
+        <v>67</v>
+      </c>
+      <c r="G63" t="s">
+        <v>67</v>
       </c>
       <c r="I63" t="s">
         <v>22</v>
       </c>
       <c r="J63" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="K63" s="8">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D64" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" t="s">
+        <v>22</v>
+      </c>
+      <c r="J64" t="s">
+        <v>130</v>
+      </c>
+      <c r="K64" s="8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" t="s">
+        <v>22</v>
+      </c>
+      <c r="J65" t="s">
+        <v>26</v>
+      </c>
+      <c r="K65" s="8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="12" customFormat="1">
+      <c r="A66" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J66" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" t="s">
+        <v>22</v>
+      </c>
+      <c r="J67" t="s">
+        <v>63</v>
+      </c>
+      <c r="K67" s="8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" t="s">
+        <v>126</v>
+      </c>
+      <c r="K68" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D69" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69" t="s">
+        <v>128</v>
+      </c>
+      <c r="K69" s="8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" s="12" customFormat="1">
+      <c r="A70" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K70" s="12">
+        <v>63</v>
+      </c>
+      <c r="L70" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" s="12" customFormat="1">
+      <c r="A71" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K71" s="12">
+        <v>64</v>
+      </c>
+      <c r="L71" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" s="12" customFormat="1">
+      <c r="A72" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="L72" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J73" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K73" s="12">
+        <v>66</v>
+      </c>
+      <c r="L73" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J74" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K74" s="12">
+        <v>68</v>
+      </c>
+      <c r="L74" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" s="12" customFormat="1">
+      <c r="A75" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="K75" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="L75" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" s="12" customFormat="1">
+      <c r="A76" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I76" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J76" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="K76" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="L76" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="12"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" t="s">
+        <v>67</v>
+      </c>
+      <c r="I79" t="s">
+        <v>22</v>
+      </c>
+      <c r="J79" t="s">
         <v>124</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C64" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" t="s">
-        <v>116</v>
-      </c>
-      <c r="I64" t="s">
-        <v>22</v>
-      </c>
-      <c r="J64" t="s">
-        <v>123</v>
-      </c>
-      <c r="K64" s="8">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" t="s">
-        <v>115</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C65" t="s">
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D80" t="s">
+        <v>21</v>
+      </c>
+      <c r="I80" t="s">
+        <v>52</v>
+      </c>
+      <c r="J80" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" t="s">
+        <v>21</v>
+      </c>
+      <c r="I81" t="s">
+        <v>52</v>
+      </c>
+      <c r="J81" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" s="12" customFormat="1">
+      <c r="A82" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C82" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D65" t="s">
-        <v>119</v>
-      </c>
-      <c r="I65" t="s">
-        <v>22</v>
-      </c>
-      <c r="J65" t="s">
-        <v>117</v>
-      </c>
-      <c r="K65" s="8">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" t="s">
-        <v>121</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C66" t="s">
-        <v>83</v>
-      </c>
-      <c r="D66" t="s">
-        <v>119</v>
-      </c>
-      <c r="I66" t="s">
-        <v>22</v>
-      </c>
-      <c r="J66" t="s">
-        <v>122</v>
-      </c>
-      <c r="K66" s="8">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" t="s">
+      <c r="D82" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C67" t="s">
-        <v>83</v>
-      </c>
-      <c r="D67" t="s">
-        <v>119</v>
-      </c>
-      <c r="I67" t="s">
-        <v>22</v>
-      </c>
-      <c r="J67" t="s">
-        <v>120</v>
-      </c>
-      <c r="K67" s="8">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" t="s">
-        <v>142</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C68" t="s">
-        <v>83</v>
-      </c>
-      <c r="D68" t="s">
-        <v>119</v>
-      </c>
-      <c r="I68" t="s">
-        <v>22</v>
-      </c>
-      <c r="J68" t="s">
-        <v>143</v>
-      </c>
-      <c r="K68" s="8">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" t="s">
-        <v>144</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C69" t="s">
-        <v>83</v>
-      </c>
-      <c r="D69" t="s">
-        <v>119</v>
-      </c>
-      <c r="I69" t="s">
-        <v>22</v>
-      </c>
-      <c r="J69" t="s">
-        <v>145</v>
-      </c>
-      <c r="K69" s="8">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B72" s="2"/>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" t="s">
-        <v>125</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D73" t="s">
-        <v>20</v>
-      </c>
-      <c r="E73" t="s">
-        <v>67</v>
-      </c>
-      <c r="I73" t="s">
-        <v>22</v>
-      </c>
-      <c r="J73" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" t="s">
-        <v>51</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D74" t="s">
-        <v>21</v>
-      </c>
-      <c r="I74" t="s">
-        <v>52</v>
-      </c>
-      <c r="J74" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D75" t="s">
-        <v>21</v>
-      </c>
-      <c r="I75" t="s">
-        <v>52</v>
-      </c>
-      <c r="J75" t="s">
-        <v>73</v>
+      <c r="I82" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J82" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="L82" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="12" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
